--- a/Tools/8x8CharacterROMHelper.xlsx
+++ b/Tools/8x8CharacterROMHelper.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>0x0000000000000000</t>
+    <t>0x000000003f666666</t>
   </si>
 </sst>
 </file>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC9"/>
+  <dimension ref="B1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,43 +537,43 @@
         <v>0</v>
       </c>
       <c r="J1" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I1,H1,G1,F1,E1,D1,C1,B1)),2),"00")</f>
+        <f t="shared" ref="J1:J8" si="0">TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I1,H1,G1,F1,E1,D1,C1,B1)),2),"00")</f>
         <v>00</v>
       </c>
       <c r="K1" t="str">
         <f>MID(K9,17,2)</f>
-        <v>00</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1">
-        <f t="shared" ref="L1:L8" si="0">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1))</f>
+        <f t="shared" ref="L1:L8" si="1">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1))</f>
         <v>0</v>
       </c>
       <c r="M1" s="1">
-        <f t="shared" ref="M1:M8" si="1">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10))</f>
-        <v>0</v>
+        <f t="shared" ref="M1:M8" si="2">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10))</f>
+        <v>2</v>
       </c>
       <c r="N1" s="1">
-        <f t="shared" ref="N1:N8" si="2">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(100))</f>
-        <v>0</v>
+        <f t="shared" ref="N1:N8" si="3">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(100))</f>
+        <v>4</v>
       </c>
       <c r="O1" s="1">
-        <f t="shared" ref="O1:O8" si="3">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1000))</f>
+        <f t="shared" ref="O1:O8" si="4">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1000))</f>
         <v>0</v>
       </c>
       <c r="P1" s="1">
-        <f t="shared" ref="P1:P8" si="4">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10000))</f>
+        <f t="shared" ref="P1:P8" si="5">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10000))</f>
         <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <f t="shared" ref="Q1:Q8" si="5">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(100000))</f>
-        <v>0</v>
+        <f t="shared" ref="Q1:Q8" si="6">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(100000))</f>
+        <v>32</v>
       </c>
       <c r="R1" s="1">
-        <f t="shared" ref="R1:R8" si="6">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1000000))</f>
-        <v>0</v>
+        <f t="shared" ref="R1:R8" si="7">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(1000000))</f>
+        <v>64</v>
       </c>
       <c r="S1" s="1">
-        <f t="shared" ref="S1:S8" si="7">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10000000))</f>
+        <f t="shared" ref="S1:S8" si="8">_xlfn.BITAND(HEX2DEC(K1),BIN2DEC(10000000))</f>
         <v>0</v>
       </c>
       <c r="U1" s="7">
@@ -590,7 +590,7 @@
       </c>
       <c r="X1" s="8">
         <f>IF(L4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="8">
         <f>IF(L5,1,0)</f>
@@ -609,8 +609,8 @@
         <v>0</v>
       </c>
       <c r="AC1" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB1,AA1,Z1,Y1,X1,W1,V1,U1)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" ref="AC1:AC8" si="9">TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB1,AA1,Z1,Y1,X1,W1,V1,U1)),2),"00")</f>
+        <v>08</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,60 +639,60 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I2,H2,G2,F2,E2,D2,C2,B2)),2),"00")</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K2" t="str">
         <f>MID(K9,15,2)</f>
-        <v>00</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U2" s="7">
         <f>IF(M1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="8">
         <f>IF(M2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="8">
         <f>IF(M3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="8">
         <f>IF(M4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="8">
         <f>IF(M5,1,0)</f>
@@ -711,8 +711,8 @@
         <v>0</v>
       </c>
       <c r="AC2" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB2,AA2,Z2,Y2,X2,W2,V2,U2)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>0F</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,16 +723,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -741,60 +741,60 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I3,H3,G3,F3,E3,D3,C3,B3)),2),"00")</f>
-        <v>3C</v>
+        <f t="shared" si="0"/>
+        <v>00</v>
       </c>
       <c r="K3" t="str">
         <f>MID(K9,13,2)</f>
-        <v>00</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U3" s="7">
         <f>IF(N1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="8">
         <f>IF(N2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="8">
         <f>IF(N3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="8">
         <f>IF(N4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="8">
         <f>IF(N5,1,0)</f>
@@ -813,8 +813,8 @@
         <v>0</v>
       </c>
       <c r="AC3" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB3,AA3,Z3,Y3,X3,W3,V3,U3)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>0F</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -843,43 +843,43 @@
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I4,H4,G4,F4,E4,D4,C4,B4)),2),"00")</f>
-        <v>3C</v>
+        <f t="shared" si="0"/>
+        <v>00</v>
       </c>
       <c r="K4" t="str">
         <f>MID(K9,11,2)</f>
-        <v>00</v>
+        <v>3f</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U4" s="7">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" s="8">
         <f>IF(O4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="8">
         <f>IF(O5,1,0)</f>
@@ -915,8 +915,8 @@
         <v>0</v>
       </c>
       <c r="AC4" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB4,AA4,Z4,Y4,X4,W4,V4,U4)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>08</v>
       </c>
     </row>
     <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -945,43 +945,43 @@
         <v>0</v>
       </c>
       <c r="J5" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I5,H5,G5,F5,E5,D5,C5,B5)),2),"00")</f>
-        <v>3C</v>
+        <f t="shared" si="0"/>
+        <v>1E</v>
       </c>
       <c r="K5" t="str">
         <f>MID(K9,9,2)</f>
         <v>00</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U5" s="7">
@@ -998,7 +998,7 @@
       </c>
       <c r="X5" s="8">
         <f>IF(P4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="8">
         <f>IF(P5,1,0)</f>
@@ -1017,8 +1017,8 @@
         <v>0</v>
       </c>
       <c r="AC5" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB5,AA5,Z5,Y5,X5,W5,V5,U5)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>08</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -1047,60 +1047,60 @@
         <v>0</v>
       </c>
       <c r="J6" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I6,H6,G6,F6,E6,D6,C6,B6)),2),"00")</f>
-        <v>3C</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="K6" t="str">
         <f>MID(K9,7,2)</f>
         <v>00</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U6" s="7">
         <f>IF(Q1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="8">
         <f>IF(Q2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="8">
         <f>IF(Q3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="8">
         <f>IF(Q4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="8">
         <f>IF(Q5,1,0)</f>
@@ -1119,8 +1119,8 @@
         <v>0</v>
       </c>
       <c r="AC6" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB6,AA6,Z6,Y6,X6,W6,V6,U6)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>0F</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -1149,56 +1149,56 @@
         <v>0</v>
       </c>
       <c r="J7" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I7,H7,G7,F7,E7,D7,C7,B7)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="K7" t="str">
         <f>MID(K9,5,2)</f>
         <v>00</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U7" s="7">
         <f>IF(R1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="8">
         <f>IF(R2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="8">
         <f>IF(R3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="8">
         <f>IF(R4,1,0)</f>
@@ -1221,8 +1221,8 @@
         <v>0</v>
       </c>
       <c r="AC7" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB7,AA7,Z7,Y7,X7,W7,V7,U7)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>07</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1251,43 +1251,43 @@
         <v>0</v>
       </c>
       <c r="J8" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(I8,H8,G8,F8,E8,D8,C8,B8)),2),"00")</f>
-        <v>00</v>
+        <f t="shared" si="0"/>
+        <v>1E</v>
       </c>
       <c r="K8" t="str">
         <f>MID(K9,3,2)</f>
         <v>00</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
@@ -1323,26 +1323,336 @@
         <v>0</v>
       </c>
       <c r="AC8" t="str">
-        <f>TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB8,AA8,Z8,Y8,X8,W8,V8,U8)),2),"00")</f>
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J9" t="str">
         <f>CONCATENATE("0x",J8,J7,J6,J5,J4,J3,J2,J1)</f>
-        <v>0x00003C3C3C3C0000</v>
+        <v>0x1E30181E00000000</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AC9" t="str">
         <f>CONCATENATE("0x",AC8,AC7,AC6,AC5,AC4,AC3,AC2,AC1)</f>
-        <v>0x0000000000000000</v>
+        <v>0x00070F08080F0F08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="7">
+        <f>IF(S8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <f>IF(R8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <f>IF(Q8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <f>IF(P8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <f>IF(O8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8">
+        <f>IF(N8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <f>IF(M8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <f>IF(L8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" ref="AC11:AC18" si="10">TEXT(DEC2HEX(BIN2DEC(CONCATENATE(AB11,AA11,Z11,Y11,X11,W11,V11,U11)),2),"00")</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="7">
+        <f>IF(S7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <f>IF(R7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <f>IF(Q7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <f>IF(P7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <f>IF(O7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <f>IF(N7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <f>IF(M7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <f>IF(L7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="10"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="7">
+        <f>IF(S6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <f>IF(R6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <f>IF(Q6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <f>IF(P6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <f>IF(O6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <f>IF(N6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <f>IF(M6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <f>IF(L6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="10"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="7">
+        <f>IF(S5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <f>IF(R5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <f>IF(Q5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <f>IF(P5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <f>IF(O5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <f>IF(N5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8">
+        <f>IF(M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <f>IF(L5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="10"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="7">
+        <f>IF(S4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <f>IF(R4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <f>IF(Q4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <f>IF(P4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="8">
+        <f>IF(O4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <f>IF(N4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="8">
+        <f>IF(M4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>IF(L4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="10"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="7">
+        <f>IF(S3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <f>IF(R3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
+        <f>IF(Q3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="8">
+        <f>IF(P3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <f>IF(O3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8">
+        <f>IF(N3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
+        <f>IF(M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="9">
+        <f>IF(L3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="7">
+        <f>IF(S2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <f>IF(R2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W17" s="8">
+        <f>IF(Q2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <f>IF(P2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <f>IF(O2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <f>IF(N2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="8">
+        <f>IF(M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="9">
+        <f>IF(L2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="7">
+        <f>IF(S1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="8">
+        <f>IF(R1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W18" s="8">
+        <f>IF(Q1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="8">
+        <f>IF(P1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <f>IF(O1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
+        <f>IF(N1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="8">
+        <f>IF(M1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB18" s="9">
+        <f>IF(L1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="AC19" t="str">
+        <f>CONCATENATE("0x",AC18,AC17,AC16,AC15,AC14,AC13,AC12,AC11)</f>
+        <v>0x666666FC00000000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:S8">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -1352,7 +1662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I8">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -1362,6 +1672,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AB8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11:AB18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1373,5 +1693,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Z13:AA13 X13" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>